--- a/tests/test_priority/input_test_priority.xlsx
+++ b/tests/test_priority/input_test_priority.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\test_priority\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA376F1B-DFB8-4D75-981C-891868BE7006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D367270-46E3-47B7-B481-E738A59F098D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>services</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>rea,soins</t>
+  </si>
+  <si>
+    <t>treatment</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF5F45-CFAD-4E61-9970-5F5BE534E7C0}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +491,7 @@
     <col min="6" max="6" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -498,8 +501,11 @@
       <c r="C1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -510,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -521,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -532,7 +538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -551,10 +557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE173FA1-E983-499D-AB64-6CD8215CA3C5}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,7 +575,7 @@
     <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -594,8 +600,11 @@
       <c r="H1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -609,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -623,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -637,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -651,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -671,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -691,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -714,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -737,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -757,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -777,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>

--- a/tests/test_priority/input_test_priority.xlsx
+++ b/tests/test_priority/input_test_priority.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\test_priority\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D367270-46E3-47B7-B481-E738A59F098D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A987ABF-C8CB-4F5E-8976-447846F48060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>babies</t>
   </si>
   <si>
-    <t>babies_potential</t>
-  </si>
-  <si>
     <t>old_alloc_list</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>treatment</t>
+  </si>
+  <si>
+    <t>babies_service</t>
   </si>
 </sst>
 </file>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF5F45-CFAD-4E61-9970-5F5BE534E7C0}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,18 +496,18 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE173FA1-E983-499D-AB64-6CD8215CA3C5}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,7 +577,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -586,22 +586,22 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -711,7 +711,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
@@ -734,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
@@ -794,10 +794,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_priority/input_test_priority.xlsx
+++ b/tests/test_priority/input_test_priority.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\test_priority\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A987ABF-C8CB-4F5E-8976-447846F48060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1229602A-6337-4AC6-95DC-429877C863B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
-    <sheet name="rooms" sheetId="3" r:id="rId2"/>
+    <sheet name="beds" sheetId="3" r:id="rId2"/>
     <sheet name="services" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -62,15 +62,9 @@
     <t>r7</t>
   </si>
   <si>
-    <t>new_rooms_service</t>
-  </si>
-  <si>
     <t>out</t>
   </si>
   <si>
-    <t>old_rooms</t>
-  </si>
-  <si>
     <t>r8</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>r10</t>
   </si>
   <si>
-    <t>new_rooms</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -95,18 +86,9 @@
     <t>going_out</t>
   </si>
   <si>
-    <t>old_rooms_service</t>
-  </si>
-  <si>
     <t>leave_hospital</t>
   </si>
   <si>
-    <t>rooms_capacities</t>
-  </si>
-  <si>
-    <t>all_rooms</t>
-  </si>
-  <si>
     <t>bb1</t>
   </si>
   <si>
@@ -129,6 +111,24 @@
   </si>
   <si>
     <t>babies_service</t>
+  </si>
+  <si>
+    <t>all_beds</t>
+  </si>
+  <si>
+    <t>new_beds</t>
+  </si>
+  <si>
+    <t>old_beds</t>
+  </si>
+  <si>
+    <t>new_beds_service</t>
+  </si>
+  <si>
+    <t>old_beds_service</t>
+  </si>
+  <si>
+    <t>beds_capacities</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF5F45-CFAD-4E61-9970-5F5BE534E7C0}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -493,21 +493,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE173FA1-E983-499D-AB64-6CD8215CA3C5}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,31 +577,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -623,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -651,7 +651,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -665,10 +665,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -705,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
@@ -725,16 +725,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
@@ -748,13 +748,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -788,16 +788,16 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
